--- a/output/fit_clients/fit_round_486.xlsx
+++ b/output/fit_clients/fit_round_486.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2271959167.375079</v>
+        <v>2239036325.85812</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105132517241654</v>
+        <v>0.06980908510973302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0284549756659927</v>
+        <v>0.02885330719094489</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1135979615.891412</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2129655933.696486</v>
+        <v>2575252403.179884</v>
       </c>
       <c r="F3" t="n">
-        <v>0.117836486467784</v>
+        <v>0.1845448216107332</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0307958234364153</v>
+        <v>0.03851425803437484</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1064828027.015203</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3865302457.578989</v>
+        <v>4158198923.85666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111516402164932</v>
+        <v>0.1503619953225526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02578478035680144</v>
+        <v>0.03082244979881064</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>175</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1932651233.459905</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3211331629.456509</v>
+        <v>3279361463.458343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1095857861538954</v>
+        <v>0.09190915158652925</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0378978663448887</v>
+        <v>0.04586725440789599</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>179</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1605665870.653103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1790978008.70958</v>
+        <v>2778231651.443381</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1176857171711095</v>
+        <v>0.1190307815559071</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03716871810742633</v>
+        <v>0.04040059441416361</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>895489056.5915285</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2536067542.056431</v>
+        <v>1915318115.185592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07466089917894185</v>
+        <v>0.09255974413114695</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03430306325949437</v>
+        <v>0.03934744802068781</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>153</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1268033780.586565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2475049953.634721</v>
+        <v>3846946828.427679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1801041597544666</v>
+        <v>0.1354826527817403</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02251891997468916</v>
+        <v>0.02563982491941613</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>155</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1237524980.689938</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1829812062.246875</v>
+        <v>1691653706.815474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1484378355038039</v>
+        <v>0.170863466646991</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03609489675479477</v>
+        <v>0.02490687713900478</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>914906081.371986</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4515786120.174965</v>
+        <v>4899416352.935361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1415976511736018</v>
+        <v>0.1805375385457851</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03504176141044533</v>
+        <v>0.03783123171450904</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>204</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2257893121.920847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2849211762.460272</v>
+        <v>2648586065.431898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1589932408685908</v>
+        <v>0.128323762494469</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0460375197900064</v>
+        <v>0.03251748067312023</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1424605813.653826</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2852424480.102237</v>
+        <v>3198224783.872547</v>
       </c>
       <c r="F12" t="n">
-        <v>0.141775450370089</v>
+        <v>0.1480248363415745</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03937807728072509</v>
+        <v>0.04475696301014462</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>165</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1426212244.587039</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5122860926.45673</v>
+        <v>3337218747.597307</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08478420980032095</v>
+        <v>0.09572911706348242</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01995624417230372</v>
+        <v>0.02481822601888343</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>163</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2561430461.149158</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3289370253.972025</v>
+        <v>2695962736.59172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1780578988780218</v>
+        <v>0.1211385200111498</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04335767980244482</v>
+        <v>0.03640326098791941</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1644685140.493576</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1813930620.648364</v>
+        <v>1586952657.851211</v>
       </c>
       <c r="F15" t="n">
-        <v>0.107431364656182</v>
+        <v>0.08763916474842581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0430885678699047</v>
+        <v>0.04010293340569826</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>906965467.0195055</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1912050959.261484</v>
+        <v>2552485989.702467</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08752772784864271</v>
+        <v>0.1133002626719365</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04627841940970727</v>
+        <v>0.03398183906951878</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>956025563.0080341</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4100349876.882183</v>
+        <v>3534019820.863713</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1599967001439322</v>
+        <v>0.1248976805702514</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03439446378642902</v>
+        <v>0.03672608354585567</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2050174968.12189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2865775576.400664</v>
+        <v>3818332589.336416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1275240776545459</v>
+        <v>0.1606613496331274</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03338204872746502</v>
+        <v>0.02853017541909673</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>159</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1432887828.176784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>928978299.5864446</v>
+        <v>877869128.2141801</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1615288433094638</v>
+        <v>0.1219471207773207</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02386868066214319</v>
+        <v>0.02315661873612208</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>464489161.7548812</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2344335738.109921</v>
+        <v>2402095804.964</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1238755774311498</v>
+        <v>0.1210441975245336</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03135313101493099</v>
+        <v>0.03022237707751222</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1172167858.752389</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2589273870.858449</v>
+        <v>2429412433.786396</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08087937594877652</v>
+        <v>0.08713429012155134</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02779142092982135</v>
+        <v>0.03880330686445007</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1294636915.054204</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3156399136.56625</v>
+        <v>2722167329.623633</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1331798238379133</v>
+        <v>0.0901070587642866</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04728527708908042</v>
+        <v>0.05140159095418845</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1578199620.4721</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1116831322.893502</v>
+        <v>947563944.8341208</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1688792869467499</v>
+        <v>0.1847887335276313</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03470692720303117</v>
+        <v>0.04323210811973726</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>558415711.9561263</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3885425242.962428</v>
+        <v>3991185783.382499</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1303565560128551</v>
+        <v>0.1185792507658979</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03468150830785414</v>
+        <v>0.03159032353006885</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>142</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1942712597.188746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>936883395.747512</v>
+        <v>1172398791.325112</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1119480887107489</v>
+        <v>0.1200652438871942</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01919325401275973</v>
+        <v>0.02715764849303295</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>468441776.3920585</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1238593417.733314</v>
+        <v>978928003.3306068</v>
       </c>
       <c r="F26" t="n">
-        <v>0.101579933004687</v>
+        <v>0.08391149266134719</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03013042525232314</v>
+        <v>0.03357767086187797</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>619296739.3741419</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2953784543.700674</v>
+        <v>2883298174.377932</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1172124180670655</v>
+        <v>0.114141054368703</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01736193953263335</v>
+        <v>0.02043765124279511</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1476892333.989331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2458918828.362852</v>
+        <v>2991555496.139866</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1378975367073379</v>
+        <v>0.103616267589997</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04947539442062542</v>
+        <v>0.03655387345534348</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>156</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1229459378.438708</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4747839247.148924</v>
+        <v>3865935646.190067</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1428098551860766</v>
+        <v>0.1181034901524142</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02915930521251337</v>
+        <v>0.04401769021307747</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>214</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2373919588.633232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1631574292.706056</v>
+        <v>1979564975.13261</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1039793409915257</v>
+        <v>0.1173110537146452</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02558863585771412</v>
+        <v>0.03198328344320617</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>815787141.8467181</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1209087991.937053</v>
+        <v>1461169163.750785</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07087995276284038</v>
+        <v>0.08144382989889636</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04066389028754185</v>
+        <v>0.03479222994491803</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>604543945.3142362</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1824052192.515048</v>
+        <v>1306843244.655724</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07878759250611121</v>
+        <v>0.08624030595464163</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02959209830360294</v>
+        <v>0.03405217080834331</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>912026231.7517406</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3009192024.576645</v>
+        <v>2632408087.462314</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2083391616377543</v>
+        <v>0.1709515121025971</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04640836866658897</v>
+        <v>0.04874721615108291</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1504596007.148718</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1256139360.856323</v>
+        <v>1365401797.03189</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09543534149181823</v>
+        <v>0.110699876356221</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0283567081440946</v>
+        <v>0.02010841837278665</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>628069676.2808309</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1008031969.497347</v>
+        <v>1139290047.539623</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08118525269764584</v>
+        <v>0.1044965650709326</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04183368700104761</v>
+        <v>0.03044911585820979</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>504016001.5824096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2185375571.417463</v>
+        <v>1990731906.204096</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1139099528136731</v>
+        <v>0.1115018694994943</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02064977863019883</v>
+        <v>0.02077281616943349</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1092687832.895382</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2898784090.376641</v>
+        <v>2701578254.201568</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0954535131610231</v>
+        <v>0.08255597326354128</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03278951631640684</v>
+        <v>0.03725621683536146</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>131</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1449392196.130527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1912874236.171783</v>
+        <v>1748527922.048464</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08508578066370229</v>
+        <v>0.09656715162122841</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03184547158589548</v>
+        <v>0.02979067831078284</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>956437109.0387483</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1832391429.484536</v>
+        <v>2157530164.697069</v>
       </c>
       <c r="F39" t="n">
-        <v>0.175819194640868</v>
+        <v>0.191279294729599</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03073774045152585</v>
+        <v>0.02139766248421556</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>916195734.7369752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1110492877.964476</v>
+        <v>1350272890.992968</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1558769440187077</v>
+        <v>0.1443555902255222</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05569841306267828</v>
+        <v>0.05870951894875306</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>555246502.7064404</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2446185624.772593</v>
+        <v>1902400411.966521</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1405076449205312</v>
+        <v>0.1282677310846358</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03458487629449394</v>
+        <v>0.03568910591269122</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>118</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1223092842.919992</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4044985925.303019</v>
+        <v>3891543596.463579</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1036590484352848</v>
+        <v>0.1128046938411855</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04001924997243086</v>
+        <v>0.0369048959273845</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>158</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2022492995.046003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2467689252.001481</v>
+        <v>2036031823.562839</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1291883798186169</v>
+        <v>0.2003400767690334</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01864454756094798</v>
+        <v>0.01642444307261703</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>168</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1233844677.940922</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1785060989.16164</v>
+        <v>2318966575.774955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1004989106625496</v>
+        <v>0.08940956542615416</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02474964758176152</v>
+        <v>0.03120686443254956</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>892530558.044507</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2366883987.373729</v>
+        <v>2015682074.971841</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1670129107923493</v>
+        <v>0.1481113803492091</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04646180623344189</v>
+        <v>0.04202667128112729</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1183442021.538273</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4079969573.870314</v>
+        <v>5392787841.257282</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1767012758804067</v>
+        <v>0.1354491114468963</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05662960158720142</v>
+        <v>0.05596542892362261</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>172</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2039984761.110595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4472555791.329943</v>
+        <v>4685699315.829206</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1837484487274295</v>
+        <v>0.1554055583250805</v>
       </c>
       <c r="G47" t="n">
-        <v>0.053828026924578</v>
+        <v>0.04503596695447472</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2236277921.640361</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3406467764.883491</v>
+        <v>3572263506.082839</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09345247594955897</v>
+        <v>0.09541682609908975</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03540334651986669</v>
+        <v>0.0363486286792983</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1703233951.361335</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1937577547.138161</v>
+        <v>1258279423.428033</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1787000994189143</v>
+        <v>0.1412417684900776</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03490239918386139</v>
+        <v>0.04443489927942413</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>968788737.5954274</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3436263555.000013</v>
+        <v>3252075241.064537</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1697777102437852</v>
+        <v>0.1254260314280993</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04194265057947481</v>
+        <v>0.05348002904457248</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>166</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1718131806.317693</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1235880343.20849</v>
+        <v>1078272681.380219</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1327924091214969</v>
+        <v>0.1404618506688422</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05231825958074895</v>
+        <v>0.05270908608374159</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>617940217.368062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4840832739.181566</v>
+        <v>5227861478.534109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1241810567273404</v>
+        <v>0.137201276416053</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05062660816499043</v>
+        <v>0.05331754744231507</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>200</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2420416376.603559</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3655296910.956901</v>
+        <v>3209472408.02945</v>
       </c>
       <c r="F53" t="n">
-        <v>0.191102651574882</v>
+        <v>0.1578662226448568</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02342628198835978</v>
+        <v>0.02729518104632039</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>139</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1827648442.709762</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4954692784.160212</v>
+        <v>4119474042.512868</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1605073872872403</v>
+        <v>0.138790818554338</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04490369233958001</v>
+        <v>0.04431497886592074</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2477346531.145123</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3442972266.474848</v>
+        <v>3903989552.611068</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1727419312162194</v>
+        <v>0.1772072582643116</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02467104853612972</v>
+        <v>0.02648180597539549</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1721486083.615521</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1818018893.164456</v>
+        <v>1346026387.249246</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1528140492820776</v>
+        <v>0.1421529636586385</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05654537053929579</v>
+        <v>0.05172888718165315</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>909009441.7508433</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3604513468.965661</v>
+        <v>4075836372.277034</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1498269660732568</v>
+        <v>0.1269112216992256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02383403139136336</v>
+        <v>0.02597870326648965</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>154</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1802256789.667975</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1334487464.845878</v>
+        <v>1160253276.012012</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1423109875322095</v>
+        <v>0.1517393039592043</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03026099873418959</v>
+        <v>0.0341582331150202</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>667243778.6834821</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3429750674.547944</v>
+        <v>3641187929.986391</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09706212671735043</v>
+        <v>0.08225664197291695</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04522049119692351</v>
+        <v>0.04190556637604866</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1714875340.747666</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3167879221.463423</v>
+        <v>2999983278.075091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1915497206055141</v>
+        <v>0.1279870920202466</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02710310894840039</v>
+        <v>0.02651932112157053</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1583939698.713813</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2858303378.292693</v>
+        <v>3284423420.792137</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1603947961054583</v>
+        <v>0.1773688335689486</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02194385306757491</v>
+        <v>0.03142215332363184</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>168</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1429151682.997397</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1655954002.3581</v>
+        <v>1987349822.378373</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1477816195667392</v>
+        <v>0.1934681389788268</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04201237664387291</v>
+        <v>0.04258896965515435</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>827977007.6539215</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5357021758.691117</v>
+        <v>4322119404.688889</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08674260565291628</v>
+        <v>0.09358571531836127</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04216157500909118</v>
+        <v>0.04326683419113821</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2678510881.230109</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4069621904.166126</v>
+        <v>5350304178.607713</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1199154212333024</v>
+        <v>0.1350219554317119</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02186700755589853</v>
+        <v>0.03244155694037774</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>151</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2034810992.864103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4053075022.438551</v>
+        <v>4562036042.21762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1159930700207646</v>
+        <v>0.112736387024381</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01997894908597688</v>
+        <v>0.02880770707839869</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>174</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2026537526.658409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5377847424.965841</v>
+        <v>4648252260.709924</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1428841038132264</v>
+        <v>0.1006957820213604</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04356673697567313</v>
+        <v>0.04129853921398614</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2688923759.876115</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3061238220.747547</v>
+        <v>2659393561.543483</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09499608526642009</v>
+        <v>0.09421385714196413</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0370415699617212</v>
+        <v>0.04246005102237276</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>156</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1530619123.494412</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4965547527.122973</v>
+        <v>5831114545.998122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1586829974174691</v>
+        <v>0.1075483451215183</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04718088188959233</v>
+        <v>0.03575115433726789</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2482773817.897767</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1777884192.004564</v>
+        <v>2218832834.195834</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1791088478650539</v>
+        <v>0.1802321137465166</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04819102159440448</v>
+        <v>0.05306251159737368</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>888942072.246194</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2295156025.682958</v>
+        <v>3007977612.652783</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08271742870457414</v>
+        <v>0.07723171372790504</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04636611584397124</v>
+        <v>0.04359320398719391</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>139</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1147577943.943118</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4057825607.90015</v>
+        <v>4248244477.028863</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1795391211669505</v>
+        <v>0.1126478728988505</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02122553680012849</v>
+        <v>0.02872775773485137</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>176</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2028912839.374778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1531410745.735071</v>
+        <v>2044487763.43789</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07744134021806337</v>
+        <v>0.08872108902632027</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04844287886207705</v>
+        <v>0.04536649959072663</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>765705394.8253767</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3236690310.326337</v>
+        <v>3068852958.515444</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09937587570846913</v>
+        <v>0.07746718410212784</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03977399110634657</v>
+        <v>0.04549251722559523</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>183</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1618345129.485158</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3653787150.962207</v>
+        <v>2535671781.084327</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1433940124206433</v>
+        <v>0.1426934202225673</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02965841956128258</v>
+        <v>0.02841822621230787</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>165</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1826893584.401484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2492103912.258639</v>
+        <v>1908626896.340707</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1508926383354731</v>
+        <v>0.1277297805710958</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03173114394575237</v>
+        <v>0.03374295783848977</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1246051874.176455</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3640782164.005131</v>
+        <v>4975449640.181841</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07732926292558108</v>
+        <v>0.1074863985562091</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0329380971637113</v>
+        <v>0.0275712918760677</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1820391051.654525</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1423104347.992362</v>
+        <v>2124894178.367481</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1547440606851361</v>
+        <v>0.1778776423738261</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02861538992144078</v>
+        <v>0.02136004273762674</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>711552150.3381978</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3800132727.065275</v>
+        <v>3405595586.125457</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1165698145499326</v>
+        <v>0.09337806693685845</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04494760840723252</v>
+        <v>0.04650013093354681</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>168</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1900066343.586598</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1436565150.706493</v>
+        <v>1902495879.332234</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1738987926379363</v>
+        <v>0.1536040594963542</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03556690502619639</v>
+        <v>0.02648801129117861</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>718282598.4571143</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4938927718.379706</v>
+        <v>4088395949.800735</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07884230088558632</v>
+        <v>0.06973658735999463</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02560463243228336</v>
+        <v>0.02499243182289674</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2469463905.36769</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3575408844.049005</v>
+        <v>3596780577.075019</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1304555633002433</v>
+        <v>0.1120781160796097</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03003474583558133</v>
+        <v>0.03222075149857059</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1787704369.504893</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3634328410.136989</v>
+        <v>3882924991.376484</v>
       </c>
       <c r="F82" t="n">
-        <v>0.188259444911479</v>
+        <v>0.163781498547731</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02707542040511753</v>
+        <v>0.02439728274312942</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>171</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1817164265.260949</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2289560538.548162</v>
+        <v>2415271963.020576</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1555470552735288</v>
+        <v>0.1242532528009964</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04302492864242346</v>
+        <v>0.03945338354968503</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1144780290.649024</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2047243494.428194</v>
+        <v>1754231290.182077</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07396276723435836</v>
+        <v>0.1140642728963836</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05118175122767786</v>
+        <v>0.03276697252066012</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1023621745.332023</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2430875836.618425</v>
+        <v>2825332686.26828</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1437487000364649</v>
+        <v>0.1364944714173775</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03710842161999746</v>
+        <v>0.05060215406660355</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>182</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1215437915.67978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2145676752.113461</v>
+        <v>1913291265.171585</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1261692882558617</v>
+        <v>0.1198666798208576</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0250049891950713</v>
+        <v>0.02054597719772931</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1072838423.969771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>941287703.8224305</v>
+        <v>1043879832.391309</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1303110782946318</v>
+        <v>0.1497465693213216</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02937358174937233</v>
+        <v>0.04008200714473043</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>470643841.209247</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2719229225.277357</v>
+        <v>3518502531.282864</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1661304945307296</v>
+        <v>0.1269533513928744</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02547969968240351</v>
+        <v>0.03199456736141156</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>193</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1359614615.349818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2805030899.404698</v>
+        <v>2506317214.917731</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1140758064811475</v>
+        <v>0.1097732292615555</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03760065404536828</v>
+        <v>0.02928895914269238</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>164</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1402515502.115376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1345957895.954955</v>
+        <v>1912070435.068613</v>
       </c>
       <c r="F90" t="n">
-        <v>0.112063405702549</v>
+        <v>0.1043895848864244</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03426440816682443</v>
+        <v>0.03744351407896367</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>672978898.507879</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1581402860.732866</v>
+        <v>1494458322.726902</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1289065376292055</v>
+        <v>0.1806819836494906</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04080603073850578</v>
+        <v>0.03856514437491456</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>790701458.4568288</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2110343235.451346</v>
+        <v>2665803863.485408</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06665277910644751</v>
+        <v>0.1004355192304</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0325894130099355</v>
+        <v>0.02966978440205593</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>132</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1055171572.238823</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3483942677.85182</v>
+        <v>4728237350.902419</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1170566898854909</v>
+        <v>0.1351147816609987</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05168670337247067</v>
+        <v>0.04402070845421825</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>149</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1741971372.944853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2323073030.56598</v>
+        <v>2033956351.673575</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1359620175359098</v>
+        <v>0.1414438641957922</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03673117658204773</v>
+        <v>0.0353026557144995</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1161536555.677893</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2061992900.597803</v>
+        <v>2594382939.039694</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08361805591071626</v>
+        <v>0.1298816062860468</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03696256359885892</v>
+        <v>0.05246919798859068</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1030996518.301587</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1713045588.91288</v>
+        <v>1856339055.282261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1148747630547607</v>
+        <v>0.09977765417534401</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03020915980311775</v>
+        <v>0.04177080048680826</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>856522812.0909892</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3696157312.359587</v>
+        <v>4128164063.637895</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1505317408939406</v>
+        <v>0.1403904426890369</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02903783062945589</v>
+        <v>0.02065232912597276</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>157</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1848078688.157425</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3817856961.453153</v>
+        <v>2537900987.726158</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1279156202361735</v>
+        <v>0.08247996611936496</v>
       </c>
       <c r="G98" t="n">
-        <v>0.028836040560325</v>
+        <v>0.03272580818219662</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>131</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1908928520.887031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2515844181.970347</v>
+        <v>2973117308.891832</v>
       </c>
       <c r="F99" t="n">
-        <v>0.132887216105677</v>
+        <v>0.1246100721583663</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03307747235421773</v>
+        <v>0.02974205269776837</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1257922041.86573</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4750150817.894303</v>
+        <v>4737609452.368023</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1487083579203788</v>
+        <v>0.1755463366888763</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01922424120447325</v>
+        <v>0.01802604600448174</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>148</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2375075539.539546</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3102046979.806474</v>
+        <v>2452516159.398911</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1464406769681102</v>
+        <v>0.1913350881815047</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04692119493917793</v>
+        <v>0.05108747143290585</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>197</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1551023592.453821</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_486.xlsx
+++ b/output/fit_clients/fit_round_486.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2239036325.85812</v>
+        <v>2279165805.932288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06980908510973302</v>
+        <v>0.09706605654082745</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02885330719094489</v>
+        <v>0.02858349468796843</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2575252403.179884</v>
+        <v>2651076008.760209</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1845448216107332</v>
+        <v>0.1539078060957674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03851425803437484</v>
+        <v>0.04290268091552762</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4158198923.85666</v>
+        <v>3645334410.631137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1503619953225526</v>
+        <v>0.1515258230168172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03082244979881064</v>
+        <v>0.02848063306363962</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3279361463.458343</v>
+        <v>3130803476.96004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09190915158652925</v>
+        <v>0.08630446145750593</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04586725440789599</v>
+        <v>0.03316606096054897</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2778231651.443381</v>
+        <v>2237470028.289937</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1190307815559071</v>
+        <v>0.1465100671279702</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04040059441416361</v>
+        <v>0.04020042103658671</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1915318115.185592</v>
+        <v>2724419966.39224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09255974413114695</v>
+        <v>0.08564708184027263</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03934744802068781</v>
+        <v>0.04383983793804742</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3846946828.427679</v>
+        <v>2563711180.092905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1354826527817403</v>
+        <v>0.1949965679663223</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02563982491941613</v>
+        <v>0.02595813716251201</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1691653706.815474</v>
+        <v>1444881650.304896</v>
       </c>
       <c r="F9" t="n">
-        <v>0.170863466646991</v>
+        <v>0.1972451374091895</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02490687713900478</v>
+        <v>0.02506992768682369</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4899416352.935361</v>
+        <v>4562166851.608713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1805375385457851</v>
+        <v>0.2035376509543945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03783123171450904</v>
+        <v>0.04422151477773113</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2648586065.431898</v>
+        <v>3988191632.872019</v>
       </c>
       <c r="F11" t="n">
-        <v>0.128323762494469</v>
+        <v>0.1693376496176225</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03251748067312023</v>
+        <v>0.04691341381389331</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3198224783.872547</v>
+        <v>2638469196.32245</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1480248363415745</v>
+        <v>0.1443752326584734</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04475696301014462</v>
+        <v>0.04056687527538984</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3337218747.597307</v>
+        <v>4259515183.723261</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09572911706348242</v>
+        <v>0.09815755827152159</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02481822601888343</v>
+        <v>0.02171330577657048</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2695962736.59172</v>
+        <v>3064601430.647432</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1211385200111498</v>
+        <v>0.1196169076420473</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03640326098791941</v>
+        <v>0.04338918231306083</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1586952657.851211</v>
+        <v>1464526960.47446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08763916474842581</v>
+        <v>0.06604676825825539</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04010293340569826</v>
+        <v>0.03103519762819428</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2552485989.702467</v>
+        <v>2469657010.939604</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1133002626719365</v>
+        <v>0.1111150578325162</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03398183906951878</v>
+        <v>0.04602579948645629</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3534019820.863713</v>
+        <v>4870397994.279406</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1248976805702514</v>
+        <v>0.1646288746005402</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03672608354585567</v>
+        <v>0.05068429162020788</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3818332589.336416</v>
+        <v>2901328064.700313</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1606613496331274</v>
+        <v>0.1797483442597069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02853017541909673</v>
+        <v>0.02205665431243726</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>877869128.2141801</v>
+        <v>1026331124.451983</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1219471207773207</v>
+        <v>0.1886235833306234</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02315661873612208</v>
+        <v>0.02261871735999322</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2402095804.964</v>
+        <v>1999946647.892194</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1210441975245336</v>
+        <v>0.1498032729746384</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03022237707751222</v>
+        <v>0.01988701149335926</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2429412433.786396</v>
+        <v>2011869527.749123</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08713429012155134</v>
+        <v>0.06257033831921226</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03880330686445007</v>
+        <v>0.04554945897001083</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2722167329.623633</v>
+        <v>2604302521.358599</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0901070587642866</v>
+        <v>0.1372612796035253</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05140159095418845</v>
+        <v>0.04507124461857367</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>947563944.8341208</v>
+        <v>1205081999.97755</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1847887335276313</v>
+        <v>0.1170440392537425</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04323210811973726</v>
+        <v>0.03688191439203874</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3991185783.382499</v>
+        <v>3495293638.624339</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1185792507658979</v>
+        <v>0.1260466660905263</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03159032353006885</v>
+        <v>0.03618954975162673</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1172398791.325112</v>
+        <v>1371314216.558857</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1200652438871942</v>
+        <v>0.1179226300767721</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02715764849303295</v>
+        <v>0.01884527674163839</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>978928003.3306068</v>
+        <v>1097720903.729227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08391149266134719</v>
+        <v>0.08261099518574788</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03357767086187797</v>
+        <v>0.02622245851468154</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2883298174.377932</v>
+        <v>3255083103.913356</v>
       </c>
       <c r="F27" t="n">
-        <v>0.114141054368703</v>
+        <v>0.1443869329471338</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02043765124279511</v>
+        <v>0.02244924072490507</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2991555496.139866</v>
+        <v>3676023546.057854</v>
       </c>
       <c r="F28" t="n">
-        <v>0.103616267589997</v>
+        <v>0.1008065065867514</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03655387345534348</v>
+        <v>0.03053262684732771</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3865935646.190067</v>
+        <v>3798302860.541407</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1181034901524142</v>
+        <v>0.1473410195901623</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04401769021307747</v>
+        <v>0.04174737983033375</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1979564975.13261</v>
+        <v>1966511199.721589</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1173110537146452</v>
+        <v>0.09433084957903148</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03198328344320617</v>
+        <v>0.03968252074636662</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1461169163.750785</v>
+        <v>1033400422.28774</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08144382989889636</v>
+        <v>0.09175971134535915</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03479222994491803</v>
+        <v>0.04966048314884788</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1306843244.655724</v>
+        <v>1159484171.275605</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08624030595464163</v>
+        <v>0.09637157007721546</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03405217080834331</v>
+        <v>0.02862599083155443</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2632408087.462314</v>
+        <v>2848465266.81574</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1709515121025971</v>
+        <v>0.154659407494532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04874721615108291</v>
+        <v>0.05263114063993454</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1365401797.03189</v>
+        <v>1135057585.693851</v>
       </c>
       <c r="F34" t="n">
-        <v>0.110699876356221</v>
+        <v>0.1123169227175393</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02010841837278665</v>
+        <v>0.02796023080368153</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1139290047.539623</v>
+        <v>1366057898.485089</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1044965650709326</v>
+        <v>0.1161743670081802</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03044911585820979</v>
+        <v>0.03758234518677608</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1990731906.204096</v>
+        <v>2810075480.754456</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1115018694994943</v>
+        <v>0.1553194896619023</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02077281616943349</v>
+        <v>0.01897916374583206</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2701578254.201568</v>
+        <v>1838457902.466476</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08255597326354128</v>
+        <v>0.09192503123534873</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03725621683536146</v>
+        <v>0.034430714625869</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1748527922.048464</v>
+        <v>1537977379.644931</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09656715162122841</v>
+        <v>0.09854791317804129</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02979067831078284</v>
+        <v>0.03912307142359654</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2157530164.697069</v>
+        <v>1529414057.823687</v>
       </c>
       <c r="F39" t="n">
-        <v>0.191279294729599</v>
+        <v>0.175300359533886</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02139766248421556</v>
+        <v>0.02324301566022335</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1350272890.992968</v>
+        <v>1705881063.317121</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1443555902255222</v>
+        <v>0.1495119701546732</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05870951894875306</v>
+        <v>0.03768877593737904</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1902400411.966521</v>
+        <v>2591335327.432431</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1282677310846358</v>
+        <v>0.1245733621701919</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03568910591269122</v>
+        <v>0.03315955067211279</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3891543596.463579</v>
+        <v>3401317751.968884</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1128046938411855</v>
+        <v>0.1049769221720357</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0369048959273845</v>
+        <v>0.04247845079004064</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2036031823.562839</v>
+        <v>1929885913.449188</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2003400767690334</v>
+        <v>0.1758563036049826</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01642444307261703</v>
+        <v>0.02310421319089226</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2318966575.774955</v>
+        <v>2144702686.51886</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08940956542615416</v>
+        <v>0.08245864871425623</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03120686443254956</v>
+        <v>0.02932530024482131</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2015682074.971841</v>
+        <v>2439817617.235059</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1481113803492091</v>
+        <v>0.1451251358881522</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04202667128112729</v>
+        <v>0.03421766301051214</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5392787841.257282</v>
+        <v>4882025674.046341</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1354491114468963</v>
+        <v>0.1643054624477537</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05596542892362261</v>
+        <v>0.04723574055636429</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4685699315.829206</v>
+        <v>3331532170.142333</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1554055583250805</v>
+        <v>0.1678909604941615</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04503596695447472</v>
+        <v>0.04360598785001928</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3572263506.082839</v>
+        <v>3594601291.844646</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09541682609908975</v>
+        <v>0.07414811989344663</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0363486286792983</v>
+        <v>0.02751154161416068</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1258279423.428033</v>
+        <v>1649767589.977395</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1412417684900776</v>
+        <v>0.1921701156749378</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04443489927942413</v>
+        <v>0.03017430981475454</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3252075241.064537</v>
+        <v>3348910043.819359</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1254260314280993</v>
+        <v>0.1623445524086665</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05348002904457248</v>
+        <v>0.04273003304975655</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1078272681.380219</v>
+        <v>974716080.5673301</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1404618506688422</v>
+        <v>0.144991381013077</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05270908608374159</v>
+        <v>0.03868602746832255</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5227861478.534109</v>
+        <v>4247204906.168177</v>
       </c>
       <c r="F52" t="n">
-        <v>0.137201276416053</v>
+        <v>0.1352932933409761</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05331754744231507</v>
+        <v>0.04311584006170505</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3209472408.02945</v>
+        <v>2641851321.938926</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1578662226448568</v>
+        <v>0.1634762537154397</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02729518104632039</v>
+        <v>0.02224576415419271</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4119474042.512868</v>
+        <v>3485913114.685506</v>
       </c>
       <c r="F54" t="n">
-        <v>0.138790818554338</v>
+        <v>0.1055697350627897</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04431497886592074</v>
+        <v>0.05293620378323403</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3903989552.611068</v>
+        <v>4700009897.669525</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1772072582643116</v>
+        <v>0.1867962960305626</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02648180597539549</v>
+        <v>0.02779382427306831</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1346026387.249246</v>
+        <v>1544393194.005635</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1421529636586385</v>
+        <v>0.1534903595955918</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05172888718165315</v>
+        <v>0.03555405794491445</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4075836372.277034</v>
+        <v>3596788318.161085</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1269112216992256</v>
+        <v>0.1411695693399603</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02597870326648965</v>
+        <v>0.02668617017898318</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1160253276.012012</v>
+        <v>1824405230.494302</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1517393039592043</v>
+        <v>0.138857370318207</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0341582331150202</v>
+        <v>0.03603359626003606</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3641187929.986391</v>
+        <v>4174752983.240226</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08225664197291695</v>
+        <v>0.0881230862965246</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04190556637604866</v>
+        <v>0.04277323783514377</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2999983278.075091</v>
+        <v>3562459152.270433</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1279870920202466</v>
+        <v>0.1841860042688329</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02651932112157053</v>
+        <v>0.03329630603754574</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3284423420.792137</v>
+        <v>2934859240.204208</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1773688335689486</v>
+        <v>0.1442110369175906</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03142215332363184</v>
+        <v>0.02243481331198539</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1987349822.378373</v>
+        <v>1478964282.994961</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1934681389788268</v>
+        <v>0.1640303473803992</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04258896965515435</v>
+        <v>0.04726898242745976</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4322119404.688889</v>
+        <v>4486514414.966396</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09358571531836127</v>
+        <v>0.1071796915660565</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04326683419113821</v>
+        <v>0.04703768942759471</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5350304178.607713</v>
+        <v>4129657209.130619</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1350219554317119</v>
+        <v>0.1897669481126008</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03244155694037774</v>
+        <v>0.02576348403454567</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4562036042.21762</v>
+        <v>3821595974.63422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.112736387024381</v>
+        <v>0.1550249860070848</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02880770707839869</v>
+        <v>0.0259631725917835</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4648252260.709924</v>
+        <v>4094767994.227693</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006957820213604</v>
+        <v>0.128128355140917</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04129853921398614</v>
+        <v>0.04723318019334068</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2659393561.543483</v>
+        <v>2193244212.682524</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09421385714196413</v>
+        <v>0.09869718971542016</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04246005102237276</v>
+        <v>0.04792909005355984</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5831114545.998122</v>
+        <v>5321122319.332512</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1075483451215183</v>
+        <v>0.1442003055016075</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03575115433726789</v>
+        <v>0.04068163060781396</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2218832834.195834</v>
+        <v>2036894334.77969</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1802321137465166</v>
+        <v>0.1249639142121876</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05306251159737368</v>
+        <v>0.03675500607719603</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3007977612.652783</v>
+        <v>3232979150.797473</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07723171372790504</v>
+        <v>0.07440248219545921</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04359320398719391</v>
+        <v>0.04911686456936898</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4248244477.028863</v>
+        <v>4461827900.500347</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1126478728988505</v>
+        <v>0.1269679740259687</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02872775773485137</v>
+        <v>0.02192886484770938</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2044487763.43789</v>
+        <v>2268540813.579234</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08872108902632027</v>
+        <v>0.1016080618542969</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04536649959072663</v>
+        <v>0.04693242262372926</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3068852958.515444</v>
+        <v>2791493753.000606</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07746718410212784</v>
+        <v>0.1009196014631207</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04549251722559523</v>
+        <v>0.04987662232948326</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2535671781.084327</v>
+        <v>3081922268.921936</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1426934202225673</v>
+        <v>0.1803803024809049</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02841822621230787</v>
+        <v>0.02555479675440197</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1908626896.340707</v>
+        <v>1702836425.584863</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1277297805710958</v>
+        <v>0.1558696024039185</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03374295783848977</v>
+        <v>0.02911014148460198</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4975449640.181841</v>
+        <v>4351730050.47858</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1074863985562091</v>
+        <v>0.1024750873875552</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0275712918760677</v>
+        <v>0.02489419730043604</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2124894178.367481</v>
+        <v>1551577381.711056</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1778776423738261</v>
+        <v>0.1514599367299382</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02136004273762674</v>
+        <v>0.02080507617017172</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3405595586.125457</v>
+        <v>3894820167.1064</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09337806693685845</v>
+        <v>0.1247029560898988</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04650013093354681</v>
+        <v>0.04984538064520212</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1902495879.332234</v>
+        <v>1694474789.296826</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1536040594963542</v>
+        <v>0.1265347910203803</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02648801129117861</v>
+        <v>0.03207136283102253</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4088395949.800735</v>
+        <v>3519042189.808224</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06973658735999463</v>
+        <v>0.09473474157771081</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02499243182289674</v>
+        <v>0.02451478082016768</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3596780577.075019</v>
+        <v>3585162041.992999</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1120781160796097</v>
+        <v>0.1196637532970615</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03222075149857059</v>
+        <v>0.02332214416613727</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3882924991.376484</v>
+        <v>3914551950.594472</v>
       </c>
       <c r="F82" t="n">
-        <v>0.163781498547731</v>
+        <v>0.2128368245282424</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02439728274312942</v>
+        <v>0.02047809917472754</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2415271963.020576</v>
+        <v>2444107951.292389</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242532528009964</v>
+        <v>0.1178240441193164</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03945338354968503</v>
+        <v>0.03554563088220136</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1754231290.182077</v>
+        <v>1766553618.031924</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1140642728963836</v>
+        <v>0.1033623675114835</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03276697252066012</v>
+        <v>0.05166164159454504</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2825332686.26828</v>
+        <v>2842939542.179612</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1364944714173775</v>
+        <v>0.1141814990326384</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05060215406660355</v>
+        <v>0.04055770292425025</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1913291265.171585</v>
+        <v>2681904353.342542</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1198666798208576</v>
+        <v>0.1640214059345559</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02054597719772931</v>
+        <v>0.02181317004280222</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1043879832.391309</v>
+        <v>1117764092.677994</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1497465693213216</v>
+        <v>0.1873122521463278</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04008200714473043</v>
+        <v>0.04020064508856359</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3518502531.282864</v>
+        <v>2324201788.358713</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1269533513928744</v>
+        <v>0.1552119044153365</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03199456736141156</v>
+        <v>0.0261458505418602</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2506317214.917731</v>
+        <v>2573995794.500309</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1097732292615555</v>
+        <v>0.1490262662700379</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02928895914269238</v>
+        <v>0.0342112924953665</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1912070435.068613</v>
+        <v>1818538626.846308</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1043895848864244</v>
+        <v>0.1339928581979174</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03744351407896367</v>
+        <v>0.03584985318609558</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1494458322.726902</v>
+        <v>1836574957.306473</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1806819836494906</v>
+        <v>0.1585984957631989</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03856514437491456</v>
+        <v>0.04337861763996079</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2665803863.485408</v>
+        <v>2236877335.948516</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1004355192304</v>
+        <v>0.1070408469840502</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02966978440205593</v>
+        <v>0.03396997599337526</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4728237350.902419</v>
+        <v>4897566101.706252</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1351147816609987</v>
+        <v>0.1401785904819606</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04402070845421825</v>
+        <v>0.05178358013693658</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2033956351.673575</v>
+        <v>1668271865.035474</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1414438641957922</v>
+        <v>0.1403308079228683</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0353026557144995</v>
+        <v>0.04172898052404425</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2594382939.039694</v>
+        <v>3107486573.880875</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1298816062860468</v>
+        <v>0.1334628570474395</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05246919798859068</v>
+        <v>0.03855407069390763</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1856339055.282261</v>
+        <v>1570873290.204207</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09977765417534401</v>
+        <v>0.1105249961423446</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04177080048680826</v>
+        <v>0.03736777441033094</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4128164063.637895</v>
+        <v>4298325223.368043</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1403904426890369</v>
+        <v>0.1663684367400948</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02065232912597276</v>
+        <v>0.02475142504226052</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2537900987.726158</v>
+        <v>3337252281.477147</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08247996611936496</v>
+        <v>0.1134965692176539</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03272580818219662</v>
+        <v>0.02264979008613821</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2973117308.891832</v>
+        <v>2226612941.634481</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1246100721583663</v>
+        <v>0.09469349966978145</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02974205269776837</v>
+        <v>0.02871876309030937</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4737609452.368023</v>
+        <v>4307267479.417562</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1755463366888763</v>
+        <v>0.1159186101896885</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01802604600448174</v>
+        <v>0.02597955732775283</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2452516159.398911</v>
+        <v>2634455254.24679</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1913350881815047</v>
+        <v>0.1487462694693756</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05108747143290585</v>
+        <v>0.05522662472299375</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_486.xlsx
+++ b/output/fit_clients/fit_round_486.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2279165805.932288</v>
+        <v>2105434134.914124</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09706605654082745</v>
+        <v>0.08108748657069699</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02858349468796843</v>
+        <v>0.0392121344941852</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2651076008.760209</v>
+        <v>2532084263.247169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1539078060957674</v>
+        <v>0.1834772136260885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04290268091552762</v>
+        <v>0.03706537850639415</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3645334410.631137</v>
+        <v>4199335458.752742</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1515258230168172</v>
+        <v>0.1332761632513926</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02848063306363962</v>
+        <v>0.02442465740991647</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>245</v>
+      </c>
+      <c r="J4" t="n">
+        <v>485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27.33276794511452</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3130803476.96004</v>
+        <v>4254140385.359106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08630446145750593</v>
+        <v>0.08682382443390974</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03316606096054897</v>
+        <v>0.04850276305118938</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>206</v>
+      </c>
+      <c r="J5" t="n">
+        <v>486</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.93912494725112</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2237470028.289937</v>
+        <v>2265819794.359244</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1465100671279702</v>
+        <v>0.1413428147154992</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04020042103658671</v>
+        <v>0.05592433789974394</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2724419966.39224</v>
+        <v>2048436181.99974</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08564708184027263</v>
+        <v>0.09584293957629253</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04383983793804742</v>
+        <v>0.0361041993775849</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2563711180.092905</v>
+        <v>3041674603.670492</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1949965679663223</v>
+        <v>0.2045262953022138</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02595813716251201</v>
+        <v>0.03354443598563237</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>136</v>
+      </c>
+      <c r="J8" t="n">
+        <v>485</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24.18519758185145</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +752,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1444881650.304896</v>
+        <v>1642084309.570644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1972451374091895</v>
+        <v>0.1642199015644563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02506992768682369</v>
+        <v>0.02876606305915907</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +787,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4562166851.608713</v>
+        <v>4444040059.637727</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2035376509543945</v>
+        <v>0.1442256626989565</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04422151477773113</v>
+        <v>0.0499766185379523</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>368</v>
+      </c>
+      <c r="J10" t="n">
+        <v>486</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3988191632.872019</v>
+        <v>4010584752.780254</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1693376496176225</v>
+        <v>0.1862152994174793</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04691341381389331</v>
+        <v>0.03733265115976576</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>204</v>
+      </c>
+      <c r="J11" t="n">
+        <v>485</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28.99889954514165</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2638469196.32245</v>
+        <v>2559801606.201755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1443752326584734</v>
+        <v>0.1936571939698973</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04056687527538984</v>
+        <v>0.03479756870794612</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4259515183.723261</v>
+        <v>4395615961.79471</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09815755827152159</v>
+        <v>0.07429992799326612</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02171330577657048</v>
+        <v>0.02043178278182924</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>251</v>
+      </c>
+      <c r="J13" t="n">
+        <v>486</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3064601430.647432</v>
+        <v>2771329449.053235</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1196169076420473</v>
+        <v>0.1780194517342333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04338918231306083</v>
+        <v>0.03389835660356634</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>112</v>
+      </c>
+      <c r="J14" t="n">
+        <v>483</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1464526960.47446</v>
+        <v>1472277737.754673</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06604676825825539</v>
+        <v>0.07692590748973542</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03103519762819428</v>
+        <v>0.0377862043374444</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2469657010.939604</v>
+        <v>1753520683.458974</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1111150578325162</v>
+        <v>0.08464431431378198</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04602579948645629</v>
+        <v>0.03588184276909383</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4870397994.279406</v>
+        <v>3466128789.743296</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1646288746005402</v>
+        <v>0.1510333954039871</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05068429162020788</v>
+        <v>0.05282366736719414</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>237</v>
+      </c>
+      <c r="J17" t="n">
+        <v>483</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2901328064.700313</v>
+        <v>3014652087.211485</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1797483442597069</v>
+        <v>0.168266782674737</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02205665431243726</v>
+        <v>0.02161007289279493</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1026331124.451983</v>
+        <v>1064193494.460831</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1886235833306234</v>
+        <v>0.1812807855257372</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02261871735999322</v>
+        <v>0.01952618847753175</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1999946647.892194</v>
+        <v>1852341538.926852</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1498032729746384</v>
+        <v>0.09795324836552786</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01988701149335926</v>
+        <v>0.02071805880820433</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2011869527.749123</v>
+        <v>2173283006.683266</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06257033831921226</v>
+        <v>0.06811822020549463</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04554945897001083</v>
+        <v>0.03256783725861458</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2604302521.358599</v>
+        <v>3678828317.130281</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1372612796035253</v>
+        <v>0.1064288984397956</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04507124461857367</v>
+        <v>0.05182603041604551</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>142</v>
+      </c>
+      <c r="J22" t="n">
+        <v>486</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1205081999.97755</v>
+        <v>1153326140.302248</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1170440392537425</v>
+        <v>0.1422108930036235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03688191439203874</v>
+        <v>0.05096751667786844</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3495293638.624339</v>
+        <v>3430213186.53804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1260466660905263</v>
+        <v>0.1276948118187544</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03618954975162673</v>
+        <v>0.02624394911653828</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>154</v>
+      </c>
+      <c r="J24" t="n">
+        <v>484</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1371314216.558857</v>
+        <v>964534018.7014002</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1179226300767721</v>
+        <v>0.1175455223311152</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01884527674163839</v>
+        <v>0.02026200580499355</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1097720903.729227</v>
+        <v>1329896409.446367</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08261099518574788</v>
+        <v>0.0919059897452337</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02622245851468154</v>
+        <v>0.03842435990371446</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3255083103.913356</v>
+        <v>4204418954.518766</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1443869329471338</v>
+        <v>0.103984857292659</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02244924072490507</v>
+        <v>0.02464281969703312</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>217</v>
+      </c>
+      <c r="J27" t="n">
+        <v>486</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30.70002013536001</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3676023546.057854</v>
+        <v>2614837019.984202</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1008065065867514</v>
+        <v>0.1196120747058751</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03053262684732771</v>
+        <v>0.04588676495805142</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>480</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3798302860.541407</v>
+        <v>4778053681.974458</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1473410195901623</v>
+        <v>0.1081482478288329</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04174737983033375</v>
+        <v>0.04396206725107502</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>384</v>
+      </c>
+      <c r="J29" t="n">
+        <v>485</v>
+      </c>
+      <c r="K29" t="n">
+        <v>25.98126858019024</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1966511199.721589</v>
+        <v>1972057252.403863</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09433084957903148</v>
+        <v>0.1347038303742863</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03968252074636662</v>
+        <v>0.03970902629772005</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1033400422.28774</v>
+        <v>1339009374.154763</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09175971134535915</v>
+        <v>0.07732643841053577</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04966048314884788</v>
+        <v>0.04745034631393338</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1159484171.275605</v>
+        <v>1166911211.935371</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09637157007721546</v>
+        <v>0.08772087157037523</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02862599083155443</v>
+        <v>0.03149438326583816</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2848465266.81574</v>
+        <v>3111073242.695702</v>
       </c>
       <c r="F33" t="n">
-        <v>0.154659407494532</v>
+        <v>0.156805925149671</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05263114063993454</v>
+        <v>0.05694163861180246</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1135057585.693851</v>
+        <v>1371725548.084057</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1123169227175393</v>
+        <v>0.1216664900128492</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02796023080368153</v>
+        <v>0.02778661928472713</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1366057898.485089</v>
+        <v>931227068.1168507</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1161743670081802</v>
+        <v>0.1136937331774516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03758234518677608</v>
+        <v>0.0332773172256324</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2810075480.754456</v>
+        <v>2519267660.632118</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1553194896619023</v>
+        <v>0.1430166716855134</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01897916374583206</v>
+        <v>0.02681548235993643</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1838457902.466476</v>
+        <v>2244666430.397583</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09192503123534873</v>
+        <v>0.1043635370109279</v>
       </c>
       <c r="G37" t="n">
-        <v>0.034430714625869</v>
+        <v>0.02980297427083712</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1537977379.644931</v>
+        <v>2057442077.245022</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09854791317804129</v>
+        <v>0.1196233475968365</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03912307142359654</v>
+        <v>0.02961111149240113</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1529414057.823687</v>
+        <v>2024740789.43807</v>
       </c>
       <c r="F39" t="n">
-        <v>0.175300359533886</v>
+        <v>0.1303625420715705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02324301566022335</v>
+        <v>0.02502294348512812</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1705881063.317121</v>
+        <v>1789023741.009394</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1495119701546732</v>
+        <v>0.1360392401102127</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03768877593737904</v>
+        <v>0.04786182473213377</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2591335327.432431</v>
+        <v>2667723014.911123</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1245733621701919</v>
+        <v>0.1544237112819236</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03315955067211279</v>
+        <v>0.04192579279536099</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3401317751.968884</v>
+        <v>3306774718.666659</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1049769221720357</v>
+        <v>0.08037959392091611</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04247845079004064</v>
+        <v>0.03331764797613594</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>209</v>
+      </c>
+      <c r="J42" t="n">
+        <v>483</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1929885913.449188</v>
+        <v>1994812657.017326</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1758563036049826</v>
+        <v>0.2005125301481022</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02310421319089226</v>
+        <v>0.01660589916574779</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2144702686.51886</v>
+        <v>1469466785.610413</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08245864871425623</v>
+        <v>0.0652829338491043</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02932530024482131</v>
+        <v>0.02312213410029953</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2439817617.235059</v>
+        <v>2399813031.608686</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1451251358881522</v>
+        <v>0.1935165746501381</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03421766301051214</v>
+        <v>0.0349130345023225</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4882025674.046341</v>
+        <v>4259962726.569857</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1643054624477537</v>
+        <v>0.1269491914028699</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04723574055636429</v>
+        <v>0.05739029879658469</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>286</v>
+      </c>
+      <c r="J46" t="n">
+        <v>485</v>
+      </c>
+      <c r="K46" t="n">
+        <v>28.18019514475394</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3331532170.142333</v>
+        <v>4593855929.016771</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1678909604941615</v>
+        <v>0.151134627454261</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04360598785001928</v>
+        <v>0.04844687596082783</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>220</v>
+      </c>
+      <c r="J47" t="n">
+        <v>486</v>
+      </c>
+      <c r="K47" t="n">
+        <v>29.18136282086563</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3594601291.844646</v>
+        <v>4578944346.168036</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07414811989344663</v>
+        <v>0.08433523728363439</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02751154161416068</v>
+        <v>0.03062885025233376</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>243</v>
+      </c>
+      <c r="J48" t="n">
+        <v>486</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1649767589.977395</v>
+        <v>1803522379.975209</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1921701156749378</v>
+        <v>0.1714933515215966</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03017430981475454</v>
+        <v>0.03229815935465584</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3348910043.819359</v>
+        <v>3261108246.652606</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1623445524086665</v>
+        <v>0.1522619261611329</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04273003304975655</v>
+        <v>0.03610743654719163</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>174</v>
+      </c>
+      <c r="J50" t="n">
+        <v>483</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974716080.5673301</v>
+        <v>1000055522.911838</v>
       </c>
       <c r="F51" t="n">
-        <v>0.144991381013077</v>
+        <v>0.1585757684271487</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03868602746832255</v>
+        <v>0.04152931347532869</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4247204906.168177</v>
+        <v>5251957795.638909</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1352932933409761</v>
+        <v>0.1170263896669079</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04311584006170505</v>
+        <v>0.05990322846755813</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>272</v>
+      </c>
+      <c r="J52" t="n">
+        <v>485</v>
+      </c>
+      <c r="K52" t="n">
+        <v>26.74449405120878</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2641851321.938926</v>
+        <v>3542909690.90837</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1634762537154397</v>
+        <v>0.1722574898488161</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02224576415419271</v>
+        <v>0.02741913581923473</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>486</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3485913114.685506</v>
+        <v>4837094782.659094</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1055697350627897</v>
+        <v>0.108912448440403</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05293620378323403</v>
+        <v>0.04821222591387413</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>257</v>
+      </c>
+      <c r="J54" t="n">
+        <v>485</v>
+      </c>
+      <c r="K54" t="n">
+        <v>28.19991875806163</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4700009897.669525</v>
+        <v>3565591710.128528</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1867962960305626</v>
+        <v>0.1922543598117344</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02779382427306831</v>
+        <v>0.02729803928371012</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>239</v>
+      </c>
+      <c r="J55" t="n">
+        <v>486</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1544393194.005635</v>
+        <v>1865299797.4417</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1534903595955918</v>
+        <v>0.1054799861805228</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03555405794491445</v>
+        <v>0.0454622000396758</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3596788318.161085</v>
+        <v>3366831279.214171</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1411695693399603</v>
+        <v>0.1609068862230126</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02668617017898318</v>
+        <v>0.02403903617519653</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>210</v>
+      </c>
+      <c r="J57" t="n">
+        <v>484</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1824405230.494302</v>
+        <v>1175829212.141928</v>
       </c>
       <c r="F58" t="n">
-        <v>0.138857370318207</v>
+        <v>0.1603675520417282</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03603359626003606</v>
+        <v>0.03700589101266319</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4174752983.240226</v>
+        <v>4835326610.481436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0881230862965246</v>
+        <v>0.1114877536436445</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04277323783514377</v>
+        <v>0.04404030665242142</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>238</v>
+      </c>
+      <c r="J59" t="n">
+        <v>486</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3562459152.270433</v>
+        <v>2885099302.025084</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1841860042688329</v>
+        <v>0.2032663547593063</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03329630603754574</v>
+        <v>0.02631512805368751</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>98</v>
+      </c>
+      <c r="J60" t="n">
+        <v>483</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2934859240.204208</v>
+        <v>3005613261.429085</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1442110369175906</v>
+        <v>0.1223739616122506</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02243481331198539</v>
+        <v>0.02471131629728814</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1478964282.994961</v>
+        <v>1643078186.923745</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1640303473803992</v>
+        <v>0.152752213352194</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04726898242745976</v>
+        <v>0.03414054160670227</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4486514414.966396</v>
+        <v>4308743943.874509</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1071796915660565</v>
+        <v>0.09083126669101665</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04703768942759471</v>
+        <v>0.02958170714745454</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>242</v>
+      </c>
+      <c r="J63" t="n">
+        <v>486</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2691,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4129657209.130619</v>
+        <v>4523591722.379178</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1897669481126008</v>
+        <v>0.186996675545503</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02576348403454567</v>
+        <v>0.03338959633363792</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>242</v>
+      </c>
+      <c r="J64" t="n">
+        <v>485</v>
+      </c>
+      <c r="K64" t="n">
+        <v>26.56215946869927</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3821595974.63422</v>
+        <v>4563097705.917798</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1550249860070848</v>
+        <v>0.1599119871951734</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0259631725917835</v>
+        <v>0.03209807536002644</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>340</v>
+      </c>
+      <c r="J65" t="n">
+        <v>486</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4094767994.227693</v>
+        <v>5548836600.121102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.128128355140917</v>
+        <v>0.1483839155427037</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04723318019334068</v>
+        <v>0.0399491945265994</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>240</v>
+      </c>
+      <c r="J66" t="n">
+        <v>486</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2193244212.682524</v>
+        <v>3466830628.195279</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09869718971542016</v>
+        <v>0.0687479730374317</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04792909005355984</v>
+        <v>0.0509965276587369</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2833,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5321122319.332512</v>
+        <v>5659004567.688271</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1442003055016075</v>
+        <v>0.1149055892429515</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04068163060781396</v>
+        <v>0.04401971616401076</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>264</v>
+      </c>
+      <c r="J68" t="n">
+        <v>485</v>
+      </c>
+      <c r="K68" t="n">
+        <v>29.05387100063497</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2036894334.77969</v>
+        <v>1698557819.692206</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1249639142121876</v>
+        <v>0.1779896415712669</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03675500607719603</v>
+        <v>0.0395098658731805</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3232979150.797473</v>
+        <v>3275037564.465388</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07440248219545921</v>
+        <v>0.09118558281292907</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04911686456936898</v>
+        <v>0.04378247784954395</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>72</v>
+      </c>
+      <c r="J70" t="n">
+        <v>481</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4461827900.500347</v>
+        <v>4955974550.760631</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1269679740259687</v>
+        <v>0.121780134707465</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02192886484770938</v>
+        <v>0.03121228795589073</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>327</v>
+      </c>
+      <c r="J71" t="n">
+        <v>486</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2268540813.579234</v>
+        <v>1613806580.407427</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1016080618542969</v>
+        <v>0.1021670230097072</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04693242262372926</v>
+        <v>0.04590267960887415</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2791493753.000606</v>
+        <v>2672000783.024277</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1009196014631207</v>
+        <v>0.1104644739076488</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04987662232948326</v>
+        <v>0.03430985262646396</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3081922268.921936</v>
+        <v>3054892152.403449</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1803803024809049</v>
+        <v>0.1512324391286589</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02555479675440197</v>
+        <v>0.0307698950377641</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="n">
+        <v>21.89474832951926</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1702836425.584863</v>
+        <v>1820074893.640232</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1558696024039185</v>
+        <v>0.1548087846168582</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02911014148460198</v>
+        <v>0.02590497982856112</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4351730050.47858</v>
+        <v>3452047866.987355</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1024750873875552</v>
+        <v>0.08369181744420037</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02489419730043604</v>
+        <v>0.02875178932788686</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>233</v>
+      </c>
+      <c r="J76" t="n">
+        <v>485</v>
+      </c>
+      <c r="K76" t="n">
+        <v>19.69065265970992</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1551577381.711056</v>
+        <v>1484206756.013663</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1514599367299382</v>
+        <v>0.1361597021112039</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02080507617017172</v>
+        <v>0.0230966170959839</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3894820167.1064</v>
+        <v>4152599151.915979</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1247029560898988</v>
+        <v>0.1051145146970102</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04984538064520212</v>
+        <v>0.04190622664084555</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>241</v>
+      </c>
+      <c r="J78" t="n">
+        <v>486</v>
+      </c>
+      <c r="K78" t="n">
+        <v>29.25633126773468</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1694474789.296826</v>
+        <v>1393782518.926106</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1265347910203803</v>
+        <v>0.17537860620024</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03207136283102253</v>
+        <v>0.03120957879080546</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3519042189.808224</v>
+        <v>4910248729.465156</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09473474157771081</v>
+        <v>0.08846563030076898</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02451478082016768</v>
+        <v>0.0239057150395703</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>237</v>
+      </c>
+      <c r="J80" t="n">
+        <v>486</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3585162041.992999</v>
+        <v>4899288711.761397</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1196637532970615</v>
+        <v>0.1043050053514722</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02332214416613727</v>
+        <v>0.03200619994455883</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>227</v>
+      </c>
+      <c r="J81" t="n">
+        <v>486</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3914551950.594472</v>
+        <v>3593123711.304451</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2128368245282424</v>
+        <v>0.1910079058318186</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02047809917472754</v>
+        <v>0.020986602083072</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>319</v>
+      </c>
+      <c r="J82" t="n">
+        <v>485</v>
+      </c>
+      <c r="K82" t="n">
+        <v>20.91215128283486</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2444107951.292389</v>
+        <v>1714455430.417805</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1178240441193164</v>
+        <v>0.1280119853713845</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03554563088220136</v>
+        <v>0.04457285274066454</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1766553618.031924</v>
+        <v>1752232139.073171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1033623675114835</v>
+        <v>0.08409221483341699</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05166164159454504</v>
+        <v>0.03759236558714451</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2842939542.179612</v>
+        <v>2287210276.04672</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1141814990326384</v>
+        <v>0.1150040544562957</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04055770292425025</v>
+        <v>0.04971699127722812</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="n">
+        <v>17.25888349646896</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2681904353.342542</v>
+        <v>1694651236.526856</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1640214059345559</v>
+        <v>0.1459039887111572</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02181317004280222</v>
+        <v>0.02107969395677668</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1117764092.677994</v>
+        <v>1139068722.677902</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1873122521463278</v>
+        <v>0.1620529547068582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04020064508856359</v>
+        <v>0.03044988806514865</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2324201788.358713</v>
+        <v>2791375780.110628</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1552119044153365</v>
+        <v>0.1172605819107957</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0261458505418602</v>
+        <v>0.02517649026016543</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="n">
+        <v>21.19263514976076</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2573995794.500309</v>
+        <v>2566263490.125029</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1490262662700379</v>
+        <v>0.1474844359820438</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0342112924953665</v>
+        <v>0.04153707008679135</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>28</v>
+      </c>
+      <c r="J89" t="n">
+        <v>486</v>
+      </c>
+      <c r="K89" t="n">
+        <v>31.44598148183594</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1818538626.846308</v>
+        <v>1333480419.782418</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1339928581979174</v>
+        <v>0.08867733614248101</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03584985318609558</v>
+        <v>0.05249973641225045</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1836574957.306473</v>
+        <v>1372919727.797445</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1585984957631989</v>
+        <v>0.1818145423543575</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04337861763996079</v>
+        <v>0.05466964808949997</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2236877335.948516</v>
+        <v>2658106272.380049</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1070408469840502</v>
+        <v>0.0776089566448005</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03396997599337526</v>
+        <v>0.03041915009441109</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4897566101.706252</v>
+        <v>4743977702.564319</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1401785904819606</v>
+        <v>0.0929315852586326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05178358013693658</v>
+        <v>0.05029260105655636</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>233</v>
+      </c>
+      <c r="J93" t="n">
+        <v>486</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1668271865.035474</v>
+        <v>1523439457.76537</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1403308079228683</v>
+        <v>0.1330605020189934</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04172898052404425</v>
+        <v>0.03481171851809572</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3107486573.880875</v>
+        <v>3109647018.238589</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1334628570474395</v>
+        <v>0.1271961873401364</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03855407069390763</v>
+        <v>0.03612980949409881</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1570873290.204207</v>
+        <v>2232673508.486369</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1105249961423446</v>
+        <v>0.09973585517234247</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03736777441033094</v>
+        <v>0.03679108270489289</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4298325223.368043</v>
+        <v>4097543066.312554</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1663684367400948</v>
+        <v>0.1331501834650504</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02475142504226052</v>
+        <v>0.02550048607452508</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>253</v>
+      </c>
+      <c r="J97" t="n">
+        <v>486</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3337252281.477147</v>
+        <v>3083931694.617459</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1134965692176539</v>
+        <v>0.1048533871880843</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02264979008613821</v>
+        <v>0.01996893362980252</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2226612941.634481</v>
+        <v>2453342225.620948</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09469349966978145</v>
+        <v>0.130952472449382</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02871876309030937</v>
+        <v>0.03104516156882059</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4307267479.417562</v>
+        <v>2920062163.854251</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1159186101896885</v>
+        <v>0.1444809986488937</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02597955732775283</v>
+        <v>0.0280126709063168</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>227</v>
+      </c>
+      <c r="J100" t="n">
+        <v>485</v>
+      </c>
+      <c r="K100" t="n">
+        <v>14.60631217529704</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2634455254.24679</v>
+        <v>2321289742.123513</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1487462694693756</v>
+        <v>0.1759549949217091</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05522662472299375</v>
+        <v>0.0391516421580153</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
